--- a/wavecodes.xlsx
+++ b/wavecodes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garlandm/Library/CloudStorage/Box-Box/UAS Education/UAS_COVID/Data/keyfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garlandm/GitHub/usc-care/waves2months/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2551C5-9A51-3D48-8107-EA7839DFB034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A187994A-7E19-584B-B36A-FF15B1B7E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="12320" windowWidth="35800" windowHeight="12760" xr2:uid="{DC991171-5C3F-E84E-B951-CE0009E14E5A}"/>
+    <workbookView xWindow="21700" yWindow="10220" windowWidth="35800" windowHeight="12760" xr2:uid="{DC991171-5C3F-E84E-B951-CE0009E14E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96B2D7A-8FB3-8941-81CB-0052F5F89E63}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -411,201 +411,233 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>475</v>
+        <v>414</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>331</v>
+        <v>436</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>351</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>461</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>475</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>331</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>479</v>
       </c>
-      <c r="B26">
+      <c r="B30">
         <v>29</v>
       </c>
     </row>

--- a/wavecodes.xlsx
+++ b/wavecodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garlandm/GitHub/usc-care/waves2months/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A187994A-7E19-584B-B36A-FF15B1B7E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A063A7C2-E0B9-1245-92C5-5D08533B6DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21700" yWindow="10220" windowWidth="35800" windowHeight="12760" xr2:uid="{DC991171-5C3F-E84E-B951-CE0009E14E5A}"/>
+    <workbookView xWindow="4560" yWindow="15960" windowWidth="35800" windowHeight="12760" xr2:uid="{DC991171-5C3F-E84E-B951-CE0009E14E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96B2D7A-8FB3-8941-81CB-0052F5F89E63}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
